--- a/analysis/pre_gemini_data/participant320/Sheet2.xlsx
+++ b/analysis/pre_gemini_data/participant320/Sheet2.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,192 +422,188 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>condbody2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>condstate2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>condstate3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>except</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>except4</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>excpet2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>external2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>external3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>external4</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>external5</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>external6</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>extneral4</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
@@ -672,626 +656,628 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Revisit count</t>
+          <t>Respondent ratio (%)</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L3" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" t="n">
+        <v>100</v>
+      </c>
+      <c r="N3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O3" t="n">
+        <v>100</v>
+      </c>
+      <c r="P3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>100</v>
+      </c>
+      <c r="R3" t="n">
+        <v>100</v>
+      </c>
+      <c r="S3" t="n">
+        <v>100</v>
+      </c>
+      <c r="T3" t="n">
+        <v>100</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>19</v>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y3" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
       <c r="Z3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA3" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AH3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
       <c r="AK3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AL3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fixation count</t>
+          <t>Revisit count</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>65</v>
-      </c>
-      <c r="E4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>6</v>
-      </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD4" t="n">
         <v>2</v>
       </c>
-      <c r="AC4" t="n">
-        <v>137</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3</v>
-      </c>
       <c r="AE4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
+          <t>Fixation count</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>350.48</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>3220.81</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>26589.17</v>
+        <v>55</v>
       </c>
       <c r="E5" t="n">
-        <v>7724.8</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>2886.41</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>2586.11</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>2152.34</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>3219.97</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>12332.19</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
-        <v>3954.02</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>2886.41</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>2070.54</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>4523.1</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>2068.95</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>1851.95</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>667.24</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>1459.98</v>
+        <v>6</v>
       </c>
       <c r="S5" t="n">
-        <v>2886.41</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>27888.81</v>
+        <v>83</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>533.9400000000001</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>25271.07</v>
+        <v>54</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>1785.74</v>
+        <v>4</v>
       </c>
       <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="n">
-        <v>383.77</v>
-      </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>51585.2</v>
+        <v>67</v>
       </c>
       <c r="AD5" t="n">
-        <v>984.46</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>834.37</v>
+        <v>4</v>
       </c>
       <c r="AF5" t="n">
-        <v>1485.41</v>
+        <v>3</v>
       </c>
       <c r="AG5" t="n">
-        <v>1635.61</v>
+        <v>3</v>
       </c>
       <c r="AH5" t="n">
-        <v>1369.7</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="n">
-        <v>1251.34</v>
+        <v>3</v>
       </c>
       <c r="AL5" t="n">
-        <v>2552.73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
+          <t>Dwell time (ms)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2</v>
+        <v>350.48</v>
       </c>
       <c r="C6" t="n">
-        <v>1.84</v>
+        <v>3220.81</v>
       </c>
       <c r="D6" t="n">
-        <v>15.16</v>
+        <v>24270.04</v>
       </c>
       <c r="E6" t="n">
-        <v>4.41</v>
+        <v>7724.8</v>
       </c>
       <c r="F6" t="n">
-        <v>1.65</v>
+        <v>2886.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.47</v>
+        <v>2586.11</v>
       </c>
       <c r="H6" t="n">
-        <v>1.23</v>
+        <v>2152.34</v>
       </c>
       <c r="I6" t="n">
-        <v>1.84</v>
+        <v>3219.97</v>
       </c>
       <c r="J6" t="n">
-        <v>7.03</v>
+        <v>11814.95</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>3954.02</v>
       </c>
       <c r="L6" t="n">
-        <v>1.65</v>
+        <v>2886.41</v>
       </c>
       <c r="M6" t="n">
-        <v>1.18</v>
+        <v>1886.97</v>
       </c>
       <c r="N6" t="n">
-        <v>2.58</v>
+        <v>4523.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>2068.95</v>
       </c>
       <c r="P6" t="n">
-        <v>1.06</v>
+        <v>1851.95</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.38</v>
+        <v>667.24</v>
       </c>
       <c r="R6" t="n">
-        <v>0.83</v>
+        <v>1459.98</v>
       </c>
       <c r="S6" t="n">
-        <v>1.65</v>
+        <v>2886.41</v>
       </c>
       <c r="T6" t="n">
-        <v>27.83</v>
+        <v>27888.81</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.3</v>
+        <v>533.9400000000001</v>
       </c>
       <c r="X6" t="n">
-        <v>14.41</v>
+        <v>24086.53</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>1.02</v>
+        <v>1785.74</v>
       </c>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="n">
-        <v>0.22</v>
-      </c>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>29.42</v>
+        <v>24802.49</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.5600000000000001</v>
+        <v>984.46</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.48</v>
+        <v>834.37</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.85</v>
+        <v>1485.41</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.93</v>
+        <v>1635.61</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.78</v>
+        <v>1369.7</v>
       </c>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="n">
-        <v>0.71</v>
+        <v>1251.34</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.46</v>
+        <v>2552.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
+          <t>Dwell time (%)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175.24</v>
+        <v>0.47</v>
       </c>
       <c r="C7" t="n">
-        <v>322.08</v>
+        <v>4.29</v>
       </c>
       <c r="D7" t="n">
-        <v>409.06</v>
+        <v>32.29</v>
       </c>
       <c r="E7" t="n">
-        <v>514.99</v>
+        <v>10.28</v>
       </c>
       <c r="F7" t="n">
-        <v>577.28</v>
+        <v>3.84</v>
       </c>
       <c r="G7" t="n">
-        <v>517.22</v>
+        <v>3.44</v>
       </c>
       <c r="H7" t="n">
-        <v>538.08</v>
+        <v>2.86</v>
       </c>
       <c r="I7" t="n">
-        <v>460</v>
+        <v>4.28</v>
       </c>
       <c r="J7" t="n">
-        <v>425.25</v>
+        <v>15.72</v>
       </c>
       <c r="K7" t="n">
-        <v>790.8</v>
+        <v>5.26</v>
       </c>
       <c r="L7" t="n">
-        <v>577.28</v>
+        <v>3.84</v>
       </c>
       <c r="M7" t="n">
-        <v>690.1799999999999</v>
+        <v>2.51</v>
       </c>
       <c r="N7" t="n">
-        <v>904.62</v>
+        <v>6.02</v>
       </c>
       <c r="O7" t="n">
-        <v>517.24</v>
+        <v>2.75</v>
       </c>
       <c r="P7" t="n">
-        <v>617.3200000000001</v>
+        <v>2.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>667.24</v>
+        <v>0.89</v>
       </c>
       <c r="R7" t="n">
-        <v>243.33</v>
+        <v>1.94</v>
       </c>
       <c r="S7" t="n">
-        <v>577.28</v>
+        <v>3.84</v>
       </c>
       <c r="T7" t="n">
-        <v>336.01</v>
+        <v>27.83</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>266.97</v>
+        <v>0.71</v>
       </c>
       <c r="X7" t="n">
-        <v>421.18</v>
+        <v>32.05</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>446.43</v>
+        <v>2.38</v>
       </c>
       <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="n">
-        <v>191.89</v>
-      </c>
+      <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>376.53</v>
+        <v>33</v>
       </c>
       <c r="AD7" t="n">
-        <v>328.15</v>
+        <v>1.31</v>
       </c>
       <c r="AE7" t="n">
-        <v>208.59</v>
+        <v>1.11</v>
       </c>
       <c r="AF7" t="n">
-        <v>495.14</v>
+        <v>1.98</v>
       </c>
       <c r="AG7" t="n">
-        <v>545.2</v>
+        <v>2.18</v>
       </c>
       <c r="AH7" t="n">
-        <v>1369.7</v>
+        <v>1.82</v>
       </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="n">
-        <v>417.11</v>
+        <v>1.67</v>
       </c>
       <c r="AL7" t="n">
-        <v>425.45</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>First fixation duration (ms)</t>
+          <t>Fixation duration (ms)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>216.97</v>
+        <v>175.24</v>
       </c>
       <c r="C8" t="n">
-        <v>383.75</v>
+        <v>322.08</v>
       </c>
       <c r="D8" t="n">
-        <v>1369.7</v>
+        <v>441.27</v>
       </c>
       <c r="E8" t="n">
-        <v>567.26</v>
+        <v>514.99</v>
       </c>
       <c r="F8" t="n">
-        <v>1401.5</v>
+        <v>577.28</v>
       </c>
       <c r="G8" t="n">
-        <v>1401.5</v>
+        <v>517.22</v>
       </c>
       <c r="H8" t="n">
-        <v>567.26</v>
+        <v>538.08</v>
       </c>
       <c r="I8" t="n">
-        <v>567.26</v>
+        <v>460</v>
       </c>
       <c r="J8" t="n">
-        <v>1369.7</v>
+        <v>454.42</v>
       </c>
       <c r="K8" t="n">
-        <v>784.1799999999999</v>
+        <v>790.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1401.5</v>
+        <v>577.28</v>
       </c>
       <c r="M8" t="n">
-        <v>1369.7</v>
+        <v>943.49</v>
       </c>
       <c r="N8" t="n">
-        <v>1369.7</v>
+        <v>904.62</v>
       </c>
       <c r="O8" t="n">
-        <v>1401.5</v>
+        <v>517.24</v>
       </c>
       <c r="P8" t="n">
-        <v>567.26</v>
+        <v>617.3200000000001</v>
       </c>
       <c r="Q8" t="n">
         <v>667.24</v>
       </c>
       <c r="R8" t="n">
-        <v>283.62</v>
+        <v>243.33</v>
       </c>
       <c r="S8" t="n">
-        <v>1401.5</v>
+        <v>577.28</v>
       </c>
       <c r="T8" t="n">
-        <v>183.55</v>
+        <v>336.01</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>317.01</v>
+        <v>266.97</v>
       </c>
       <c r="X8" t="n">
-        <v>1369.7</v>
+        <v>446.05</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>434.09</v>
+        <v>446.43</v>
       </c>
       <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="n">
-        <v>233.56</v>
-      </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>901.02</v>
+        <v>370.19</v>
       </c>
       <c r="AD8" t="n">
-        <v>383.75</v>
+        <v>328.15</v>
       </c>
       <c r="AE8" t="n">
-        <v>283.62</v>
+        <v>208.59</v>
       </c>
       <c r="AF8" t="n">
-        <v>434.09</v>
+        <v>495.14</v>
       </c>
       <c r="AG8" t="n">
-        <v>317.01</v>
+        <v>545.2</v>
       </c>
       <c r="AH8" t="n">
         <v>1369.7</v>
@@ -1299,131 +1285,115 @@
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="n">
-        <v>500.52</v>
+        <v>417.11</v>
       </c>
       <c r="AL8" t="n">
-        <v>567.26</v>
+        <v>425.45</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>216.97</v>
+      </c>
+      <c r="C9" t="n">
+        <v>383.75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1369.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>567.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>567.26</v>
+      </c>
+      <c r="I9" t="n">
+        <v>567.26</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1369.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>784.1799999999999</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1369.7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1369.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>567.26</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>667.24</v>
+      </c>
+      <c r="R9" t="n">
+        <v>283.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>183.55</v>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>317.01</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1369.7</v>
+      </c>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
+      <c r="Z9" t="n">
+        <v>434.09</v>
+      </c>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>901.02</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>383.75</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>283.62</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>434.09</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>317.01</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1369.7</v>
+      </c>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
+      <c r="AK9" t="n">
+        <v>500.52</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>567.26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
